--- a/csdata/Fe/SI/Fe9+.xlsx
+++ b/csdata/Fe/SI/Fe9+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EDE402-2263-F94C-9936-EF4A6563B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,30 +52,48 @@
   <si>
     <t>STORAGE RING CROSS-SECTION MEASUREMENTS FOR ELECTRON IMPACT SINGLE AND DOUBLE IONIZATION OF Fe9 + AND SINGLE IONIZATION OF Fe10 +</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -62,48 +102,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -293,20 +336,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F524"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -322,167 +370,174 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B2" s="4">
-        <v>6.26E-21</v>
+        <v>6.2599999999999997E-21</v>
       </c>
       <c r="C2" s="4">
-        <v>2.79E-20</v>
+        <v>2.7899999999999999E-20</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="7">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B3" s="4">
-        <v>-9.03E-21</v>
+        <v>-9.0299999999999997E-21</v>
       </c>
       <c r="C3" s="4">
-        <v>2.75E-20</v>
+        <v>2.7499999999999998E-20</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4">
         <v>1.37E-21</v>
       </c>
       <c r="C4" s="4">
-        <v>2.68E-20</v>
+        <v>2.6799999999999999E-20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4">
-        <v>3.95E-21</v>
+        <v>3.9500000000000002E-21</v>
       </c>
       <c r="C5" s="4">
         <v>2.63E-20</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B6" s="4">
-        <v>-7.5E-21</v>
+        <v>-7.5000000000000007E-21</v>
       </c>
       <c r="C6" s="4">
         <v>2.52E-20</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B7" s="4">
-        <v>-1.51E-20</v>
+        <v>-1.5099999999999999E-20</v>
       </c>
       <c r="C7" s="4">
-        <v>2.48E-20</v>
+        <v>2.4799999999999999E-20</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B8" s="4">
-        <v>-1.23E-20</v>
+        <v>-1.2300000000000001E-20</v>
       </c>
       <c r="C8" s="4">
-        <v>2.76E-20</v>
+        <v>2.7600000000000001E-20</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B9" s="4">
         <v>-1.42E-21</v>
       </c>
       <c r="C9" s="4">
-        <v>1.67E-20</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1.6700000000000001E-20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B10" s="4">
-        <v>-2.25E-20</v>
+        <v>-2.2500000000000001E-20</v>
       </c>
       <c r="C10" s="4">
         <v>1.3E-20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B11" s="4">
         <v>-2.12E-20</v>
       </c>
       <c r="C11" s="4">
-        <v>1.33E-20</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1.3300000000000001E-20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B12" s="4">
-        <v>-3.29E-21</v>
+        <v>-3.2899999999999998E-21</v>
       </c>
       <c r="C12" s="4">
         <v>1.2E-20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B13" s="4">
-        <v>-8.22E-21</v>
+        <v>-8.2199999999999996E-21</v>
       </c>
       <c r="C13" s="4">
         <v>1.21E-20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B14" s="4">
-        <v>4.76E-20</v>
+        <v>4.7599999999999997E-20</v>
       </c>
       <c r="C14" s="4">
-        <v>1.33E-20</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1.3300000000000001E-20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B15" s="4">
         <v>1.85E-19</v>
@@ -491,97 +546,97 @@
         <v>2.22E-20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B16" s="4">
-        <v>3.01E-19</v>
+        <v>3.0099999999999998E-19</v>
       </c>
       <c r="C16" s="4">
         <v>3.28E-20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B17" s="4">
         <v>3.9E-19</v>
       </c>
       <c r="C17" s="4">
-        <v>4.12E-20</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4.1200000000000002E-20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B18" s="4">
-        <v>4.73E-19</v>
+        <v>4.7300000000000001E-19</v>
       </c>
       <c r="C18" s="4">
         <v>4.93E-20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B19" s="4">
-        <v>5.23E-19</v>
+        <v>5.2300000000000003E-19</v>
       </c>
       <c r="C19" s="4">
         <v>5.42E-20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B20" s="4">
-        <v>6.11E-19</v>
+        <v>6.1099999999999997E-19</v>
       </c>
       <c r="C20" s="4">
         <v>6.31E-20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B21" s="4">
         <v>6.41E-19</v>
       </c>
       <c r="C21" s="4">
-        <v>6.61E-20</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6.6100000000000004E-20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B22" s="4">
-        <v>6.9E-19</v>
+        <v>6.8999999999999999E-19</v>
       </c>
       <c r="C22" s="4">
-        <v>7.08E-20</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7.0800000000000003E-20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B23" s="4">
         <v>7.6E-19</v>
       </c>
       <c r="C23" s="4">
-        <v>7.78E-20</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>7.7799999999999995E-20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B24" s="4">
         <v>7.89E-19</v>
@@ -590,75 +645,75 @@
         <v>8.05E-20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B25" s="4">
-        <v>8.49E-19</v>
+        <v>8.4899999999999997E-19</v>
       </c>
       <c r="C25" s="4">
         <v>8.63E-20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B26" s="4">
-        <v>8.8E-19</v>
+        <v>8.7999999999999994E-19</v>
       </c>
       <c r="C26" s="4">
-        <v>8.96E-20</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>8.9600000000000001E-20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B27" s="4">
-        <v>8.96E-19</v>
+        <v>8.9600000000000009E-19</v>
       </c>
       <c r="C27" s="4">
-        <v>9.12E-20</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>9.1199999999999994E-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B28" s="4">
-        <v>9.39E-19</v>
+        <v>9.3899999999999997E-19</v>
       </c>
       <c r="C28" s="4">
-        <v>9.51E-20</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>9.5100000000000003E-20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B29" s="4">
-        <v>9.62E-19</v>
+        <v>9.6199999999999997E-19</v>
       </c>
       <c r="C29" s="4">
-        <v>9.69E-20</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>9.6900000000000003E-20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B30" s="4">
-        <v>9.76E-19</v>
+        <v>9.7600000000000005E-19</v>
       </c>
       <c r="C30" s="4">
-        <v>9.85E-20</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>9.8499999999999996E-20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B31" s="4">
         <v>1.01E-18</v>
@@ -667,42 +722,42 @@
         <v>1.02E-19</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B32" s="4">
         <v>1.05E-18</v>
       </c>
       <c r="C32" s="4">
-        <v>1.05E-19</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1.0499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B33" s="4">
-        <v>1.06E-18</v>
+        <v>1.0599999999999999E-18</v>
       </c>
       <c r="C33" s="4">
         <v>1.07E-19</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B34" s="4">
-        <v>1.1E-18</v>
+        <v>1.0999999999999999E-18</v>
       </c>
       <c r="C34" s="4">
-        <v>1.1E-19</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1.0999999999999999E-19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B35" s="4">
         <v>1.12E-18</v>
@@ -711,9 +766,9 @@
         <v>1.13E-19</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B36" s="4">
         <v>1.13E-18</v>
@@ -722,20 +777,20 @@
         <v>1.14E-19</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B37" s="4">
-        <v>1.17E-18</v>
+        <v>1.1699999999999999E-18</v>
       </c>
       <c r="C37" s="4">
-        <v>1.18E-19</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1.1799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B38" s="4">
         <v>1.2E-18</v>
@@ -744,9 +799,9 @@
         <v>1.21E-19</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B39" s="4">
         <v>1.2E-18</v>
@@ -755,9 +810,9 @@
         <v>1.21E-19</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B40" s="4">
         <v>1.24E-18</v>
@@ -766,86 +821,86 @@
         <v>1.24E-19</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B41" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C41" s="4">
-        <v>1.26E-19</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1.2599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B42" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C42" s="4">
-        <v>1.25E-19</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1.2500000000000001E-19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B43" s="4">
         <v>1.27E-18</v>
       </c>
       <c r="C43" s="4">
-        <v>1.28E-19</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1.2799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B44" s="4">
         <v>1.3E-18</v>
       </c>
       <c r="C44" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B45" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C45" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B46" s="4">
         <v>1.33E-18</v>
       </c>
       <c r="C46" s="4">
-        <v>1.33E-19</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1.3300000000000001E-19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B47" s="4">
-        <v>1.35E-18</v>
+        <v>1.3499999999999999E-18</v>
       </c>
       <c r="C47" s="4">
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B48" s="4">
         <v>1.34E-18</v>
@@ -854,20 +909,20 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B49" s="4">
-        <v>1.36E-18</v>
+        <v>1.3600000000000001E-18</v>
       </c>
       <c r="C49" s="4">
-        <v>1.36E-19</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1.3599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B50" s="4">
         <v>1.37E-18</v>
@@ -876,42 +931,42 @@
         <v>1.37E-19</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B51" s="4">
         <v>1.38E-18</v>
       </c>
       <c r="C51" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="B52" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C52" s="4">
         <v>1.4E-19</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B53" s="4">
         <v>1.41E-18</v>
       </c>
       <c r="C53" s="4">
-        <v>1.41E-19</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1.4100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="B54" s="4">
         <v>1.41E-18</v>
@@ -920,75 +975,75 @@
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B55" s="4">
-        <v>1.4E-18</v>
+        <v>1.4000000000000001E-18</v>
       </c>
       <c r="C55" s="4">
-        <v>1.41E-19</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1.4100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="B56" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C56" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B57" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C57" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B58" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C58" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="B59" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C59" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="B60" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C60" s="4">
-        <v>1.46E-19</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1.4600000000000001E-19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B61" s="4">
         <v>1.48E-18</v>
@@ -997,53 +1052,53 @@
         <v>1.48E-19</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="B62" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C62" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="B63" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C63" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="B64" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C64" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="B65" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C65" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="B66" s="4">
         <v>1.48E-18</v>
@@ -1052,9 +1107,9 @@
         <v>1.48E-19</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="B67" s="4">
         <v>1.48E-18</v>
@@ -1063,339 +1118,339 @@
         <v>1.48E-19</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="B68" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C68" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="B69" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C69" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>545.0</v>
+        <v>545</v>
       </c>
       <c r="B70" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C70" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="B71" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C71" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B72" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C72" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="B73" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C73" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>565.0</v>
+        <v>565</v>
       </c>
       <c r="B74" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C74" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="B75" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C75" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>575.0</v>
+        <v>575</v>
       </c>
       <c r="B76" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C76" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="B77" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C77" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="B78" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C78" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>590.0</v>
+        <v>590</v>
       </c>
       <c r="B79" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C79" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="B80" s="4">
         <v>1.52E-18</v>
       </c>
       <c r="C80" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="B81" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C81" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="B82" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C82" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="B83" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C83" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="B84" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C84" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="B85" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C85" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>625.0</v>
+        <v>625</v>
       </c>
       <c r="B86" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C86" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="B87" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C87" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="B88" s="4">
         <v>1.52E-18</v>
       </c>
       <c r="C88" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="B89" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C89" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="B90" s="4">
         <v>1.52E-18</v>
       </c>
       <c r="C90" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="B91" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C91" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="B92" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C92" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="B93" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C93" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="B94" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C94" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="B95" s="4">
         <v>1.55E-18</v>
       </c>
       <c r="C95" s="4">
-        <v>1.55E-19</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>1.5499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
-        <v>675.0</v>
+        <v>675</v>
       </c>
       <c r="B96" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C96" s="4">
-        <v>1.54E-19</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>1.5400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
-        <v>680.0</v>
+        <v>680</v>
       </c>
       <c r="B97" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C97" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>685.0</v>
+        <v>685</v>
       </c>
       <c r="B98" s="4">
         <v>1.56E-18</v>
@@ -1404,20 +1459,20 @@
         <v>1.56E-19</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="B99" s="4">
-        <v>1.57E-18</v>
+        <v>1.5699999999999999E-18</v>
       </c>
       <c r="C99" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="B100" s="4">
         <v>1.6E-18</v>
@@ -1426,64 +1481,64 @@
         <v>1.61E-19</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="B101" s="4">
-        <v>1.61E-18</v>
+        <v>1.6099999999999999E-18</v>
       </c>
       <c r="C101" s="4">
         <v>1.61E-19</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="B102" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C102" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="B103" s="4">
         <v>1.63E-18</v>
       </c>
       <c r="C103" s="4">
-        <v>1.63E-19</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>1.6299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
-        <v>715.0</v>
+        <v>715</v>
       </c>
       <c r="B104" s="4">
-        <v>1.65E-18</v>
+        <v>1.6500000000000001E-18</v>
       </c>
       <c r="C104" s="4">
-        <v>1.65E-19</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>1.6499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="B105" s="4">
         <v>1.67E-18</v>
       </c>
       <c r="C105" s="4">
-        <v>1.67E-19</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>1.6700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>725.0</v>
+        <v>725</v>
       </c>
       <c r="B106" s="4">
         <v>1.66E-18</v>
@@ -1492,64 +1547,64 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="B107" s="4">
-        <v>1.65E-18</v>
+        <v>1.6500000000000001E-18</v>
       </c>
       <c r="C107" s="4">
-        <v>1.65E-19</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1.6499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="B108" s="4">
         <v>1.63E-18</v>
       </c>
       <c r="C108" s="4">
-        <v>1.63E-19</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>1.6299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="B109" s="4">
-        <v>1.65E-18</v>
+        <v>1.6500000000000001E-18</v>
       </c>
       <c r="C109" s="4">
-        <v>1.65E-19</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>1.6499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="B110" s="4">
-        <v>1.64E-18</v>
+        <v>1.6399999999999999E-18</v>
       </c>
       <c r="C110" s="4">
         <v>1.64E-19</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="B111" s="4">
-        <v>1.64E-18</v>
+        <v>1.6399999999999999E-18</v>
       </c>
       <c r="C111" s="4">
         <v>1.64E-19</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="B112" s="4">
         <v>1.66E-18</v>
@@ -1558,64 +1613,64 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="B113" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C113" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>765.0</v>
+        <v>765</v>
       </c>
       <c r="B114" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C114" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="B115" s="4">
         <v>1.67E-18</v>
       </c>
       <c r="C115" s="4">
-        <v>1.67E-19</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>1.6700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="B116" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C116" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="B117" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C117" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>785.0</v>
+        <v>785</v>
       </c>
       <c r="B118" s="4">
         <v>1.66E-18</v>
@@ -1624,20 +1679,20 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
-        <v>790.0</v>
+        <v>790</v>
       </c>
       <c r="B119" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C119" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="B120" s="4">
         <v>1.71E-18</v>
@@ -1646,372 +1701,372 @@
         <v>1.71E-19</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="B121" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C121" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="B122" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C122" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>810.0</v>
+        <v>810</v>
       </c>
       <c r="B123" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C123" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>815.0</v>
+        <v>815</v>
       </c>
       <c r="B124" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C124" s="4">
-        <v>1.7E-19</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>1.7000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>820.0</v>
+        <v>820</v>
       </c>
       <c r="B125" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C125" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="B126" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C126" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="B127" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C127" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>835.0</v>
+        <v>835</v>
       </c>
       <c r="B128" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C128" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="B129" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C129" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
-        <v>845.0</v>
+        <v>845</v>
       </c>
       <c r="B130" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C130" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
-        <v>850.0</v>
+        <v>850</v>
       </c>
       <c r="B131" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C131" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="B132" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C132" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="B133" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C133" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
-        <v>865.0</v>
+        <v>865</v>
       </c>
       <c r="B134" s="4">
         <v>1.7E-18</v>
       </c>
       <c r="C134" s="4">
-        <v>1.7E-19</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>1.7000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
-        <v>870.0</v>
+        <v>870</v>
       </c>
       <c r="B135" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C135" s="4">
-        <v>1.7E-19</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>1.7000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="B136" s="4">
         <v>1.7E-18</v>
       </c>
       <c r="C136" s="4">
-        <v>1.7E-19</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>1.7000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="B137" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C137" s="4">
-        <v>1.7E-19</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>1.7000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="B138" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C138" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="B139" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C139" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>895.0</v>
+        <v>895</v>
       </c>
       <c r="B140" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C140" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="B141" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C141" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="B142" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C142" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="B143" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C143" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="B144" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C144" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="B145" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C145" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="B146" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C146" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="B147" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C147" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="B148" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C148" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="B149" s="4">
-        <v>1.69E-18</v>
+        <v>1.6900000000000001E-18</v>
       </c>
       <c r="C149" s="4">
         <v>1.69E-19</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="B150" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C150" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="B151" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C151" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="B152" s="4">
-        <v>1.68E-18</v>
+        <v>1.6799999999999999E-18</v>
       </c>
       <c r="C152" s="4">
-        <v>1.68E-19</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>1.6799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="B153" s="4">
         <v>1.67E-18</v>
       </c>
       <c r="C153" s="4">
-        <v>1.67E-19</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>1.6700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="B154" s="4">
         <v>1.66E-18</v>
@@ -2020,9 +2075,9 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="B155" s="4">
         <v>1.66E-18</v>
@@ -2031,9 +2086,9 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="B156" s="4">
         <v>1.66E-18</v>
@@ -2042,9 +2097,9 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="B157" s="4">
         <v>1.66E-18</v>
@@ -2053,20 +2108,20 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="B158" s="4">
         <v>1.67E-18</v>
       </c>
       <c r="C158" s="4">
-        <v>1.67E-19</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>1.6700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="B159" s="4">
         <v>1.66E-18</v>
@@ -2075,262 +2130,262 @@
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="B160" s="4">
-        <v>1.65E-18</v>
+        <v>1.6500000000000001E-18</v>
       </c>
       <c r="C160" s="4">
-        <v>1.65E-19</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>1.6499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B161" s="4">
-        <v>1.65E-18</v>
+        <v>1.6500000000000001E-18</v>
       </c>
       <c r="C161" s="4">
-        <v>1.65E-19</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>1.6499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="B162" s="4">
-        <v>1.65E-18</v>
+        <v>1.6500000000000001E-18</v>
       </c>
       <c r="C162" s="4">
         <v>1.66E-19</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="B163" s="4">
         <v>1.63E-18</v>
       </c>
       <c r="C163" s="4">
-        <v>1.63E-19</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>1.6299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
-        <v>1015.0</v>
+        <v>1015</v>
       </c>
       <c r="B164" s="4">
         <v>1.63E-18</v>
       </c>
       <c r="C164" s="4">
-        <v>1.63E-19</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>1.6299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="B165" s="4">
         <v>1.63E-18</v>
       </c>
       <c r="C165" s="4">
-        <v>1.63E-19</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>1.6299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
-        <v>1025.0</v>
+        <v>1025</v>
       </c>
       <c r="B166" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C166" s="4">
-        <v>1.63E-19</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1.6299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
-        <v>1030.0</v>
+        <v>1030</v>
       </c>
       <c r="B167" s="4">
-        <v>1.61E-18</v>
+        <v>1.6099999999999999E-18</v>
       </c>
       <c r="C167" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
-        <v>1035.0</v>
+        <v>1035</v>
       </c>
       <c r="B168" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C168" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="B169" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C169" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
-        <v>1045.0</v>
+        <v>1045</v>
       </c>
       <c r="B170" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C170" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="B171" s="4">
-        <v>1.61E-18</v>
+        <v>1.6099999999999999E-18</v>
       </c>
       <c r="C171" s="4">
         <v>1.61E-19</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="B172" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C172" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
-        <v>1060.0</v>
+        <v>1060</v>
       </c>
       <c r="B173" s="4">
         <v>1.62E-18</v>
       </c>
       <c r="C173" s="4">
-        <v>1.62E-19</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>1.6200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
-        <v>1065.0</v>
+        <v>1065</v>
       </c>
       <c r="B174" s="4">
         <v>1.6E-18</v>
       </c>
       <c r="C174" s="4">
-        <v>1.6E-19</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>1.5999999999999999E-19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="B175" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C175" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="B176" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C176" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="B177" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C177" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
-        <v>1085.0</v>
+        <v>1085</v>
       </c>
       <c r="B178" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C178" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
-        <v>1090.0</v>
+        <v>1090</v>
       </c>
       <c r="B179" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C179" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="B180" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C180" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="B181" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C181" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="B182" s="4">
-        <v>1.58E-18</v>
+        <v>1.5800000000000001E-18</v>
       </c>
       <c r="C182" s="4">
         <v>1.58E-19</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="B183" s="4">
         <v>1.56E-18</v>
@@ -2339,31 +2394,31 @@
         <v>1.56E-19</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
-        <v>1115.0</v>
+        <v>1115</v>
       </c>
       <c r="B184" s="4">
-        <v>1.57E-18</v>
+        <v>1.5699999999999999E-18</v>
       </c>
       <c r="C184" s="4">
-        <v>1.57E-19</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>1.5700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="B185" s="4">
         <v>1.56E-18</v>
       </c>
       <c r="C185" s="4">
-        <v>1.57E-19</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>1.5700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
-        <v>1125.0</v>
+        <v>1125</v>
       </c>
       <c r="B186" s="4">
         <v>1.56E-18</v>
@@ -2372,31 +2427,31 @@
         <v>1.56E-19</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="B187" s="4">
         <v>1.55E-18</v>
       </c>
       <c r="C187" s="4">
-        <v>1.55E-19</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>1.5499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
-        <v>1135.0</v>
+        <v>1135</v>
       </c>
       <c r="B188" s="4">
         <v>1.56E-18</v>
       </c>
       <c r="C188" s="4">
-        <v>1.57E-19</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>1.5700000000000001E-19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="B189" s="4">
         <v>1.56E-18</v>
@@ -2405,9 +2460,9 @@
         <v>1.56E-19</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
-        <v>1145.0</v>
+        <v>1145</v>
       </c>
       <c r="B190" s="4">
         <v>1.55E-18</v>
@@ -2416,108 +2471,108 @@
         <v>1.56E-19</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="B191" s="4">
-        <v>1.54E-18</v>
+        <v>1.5400000000000001E-18</v>
       </c>
       <c r="C191" s="4">
-        <v>1.55E-19</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>1.5499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
-        <v>1155.0</v>
+        <v>1155</v>
       </c>
       <c r="B192" s="4">
-        <v>1.54E-18</v>
+        <v>1.5400000000000001E-18</v>
       </c>
       <c r="C192" s="4">
-        <v>1.54E-19</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>1.5400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="B193" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C193" s="4">
-        <v>1.54E-19</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>1.5400000000000001E-19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
-        <v>1165.0</v>
+        <v>1165</v>
       </c>
       <c r="B194" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C194" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="B195" s="4">
-        <v>1.54E-18</v>
+        <v>1.5400000000000001E-18</v>
       </c>
       <c r="C195" s="4">
-        <v>1.55E-19</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>1.5499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
-        <v>1175.0</v>
+        <v>1175</v>
       </c>
       <c r="B196" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C196" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
-        <v>1180.0</v>
+        <v>1180</v>
       </c>
       <c r="B197" s="4">
-        <v>1.54E-18</v>
+        <v>1.5400000000000001E-18</v>
       </c>
       <c r="C197" s="4">
-        <v>1.55E-19</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>1.5499999999999999E-19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
-        <v>1185.0</v>
+        <v>1185</v>
       </c>
       <c r="B198" s="4">
         <v>1.52E-18</v>
       </c>
       <c r="C198" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
-        <v>1190.0</v>
+        <v>1190</v>
       </c>
       <c r="B199" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C199" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
-        <v>1195.0</v>
+        <v>1195</v>
       </c>
       <c r="B200" s="4">
         <v>1.52E-18</v>
@@ -2526,119 +2581,119 @@
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="B201" s="4">
-        <v>1.53E-18</v>
+        <v>1.5299999999999999E-18</v>
       </c>
       <c r="C201" s="4">
         <v>1.53E-19</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
-        <v>1205.0</v>
+        <v>1205</v>
       </c>
       <c r="B202" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C202" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
-        <v>1210.0</v>
+        <v>1210</v>
       </c>
       <c r="B203" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C203" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
-        <v>1215.0</v>
+        <v>1215</v>
       </c>
       <c r="B204" s="4">
         <v>1.52E-18</v>
       </c>
       <c r="C204" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
-        <v>1220.0</v>
+        <v>1220</v>
       </c>
       <c r="B205" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C205" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="B206" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C206" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="B207" s="4">
-        <v>1.51E-18</v>
+        <v>1.5100000000000001E-18</v>
       </c>
       <c r="C207" s="4">
-        <v>1.52E-19</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>1.5199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="B208" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C208" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
-        <v>1240.0</v>
+        <v>1240</v>
       </c>
       <c r="B209" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C209" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
-        <v>1245.0</v>
+        <v>1245</v>
       </c>
       <c r="B210" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C210" s="4">
-        <v>1.51E-19</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>1.5100000000000001E-19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
-        <v>1250.0</v>
+        <v>1250</v>
       </c>
       <c r="B211" s="4">
         <v>1.49E-18</v>
@@ -2647,20 +2702,20 @@
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
-        <v>1255.0</v>
+        <v>1255</v>
       </c>
       <c r="B212" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C212" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
-        <v>1260.0</v>
+        <v>1260</v>
       </c>
       <c r="B213" s="4">
         <v>1.49E-18</v>
@@ -2669,31 +2724,31 @@
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
-        <v>1265.0</v>
+        <v>1265</v>
       </c>
       <c r="B214" s="4">
         <v>1.48E-18</v>
       </c>
       <c r="C214" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
-        <v>1270.0</v>
+        <v>1270</v>
       </c>
       <c r="B215" s="4">
-        <v>1.5E-18</v>
+        <v>1.4999999999999999E-18</v>
       </c>
       <c r="C215" s="4">
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
-        <v>1275.0</v>
+        <v>1275</v>
       </c>
       <c r="B216" s="4">
         <v>1.49E-18</v>
@@ -2702,9 +2757,9 @@
         <v>1.5E-19</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
-        <v>1280.0</v>
+        <v>1280</v>
       </c>
       <c r="B217" s="4">
         <v>1.48E-18</v>
@@ -2713,31 +2768,31 @@
         <v>1.48E-19</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
-        <v>1285.0</v>
+        <v>1285</v>
       </c>
       <c r="B218" s="4">
-        <v>1.47E-18</v>
+        <v>1.4700000000000001E-18</v>
       </c>
       <c r="C218" s="4">
         <v>1.48E-19</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
-        <v>1290.0</v>
+        <v>1290</v>
       </c>
       <c r="B219" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C219" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
-        <v>1295.0</v>
+        <v>1295</v>
       </c>
       <c r="B220" s="4">
         <v>1.48E-18</v>
@@ -2746,108 +2801,108 @@
         <v>1.48E-19</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
-        <v>1300.0</v>
+        <v>1300</v>
       </c>
       <c r="B221" s="4">
         <v>1.49E-18</v>
       </c>
       <c r="C221" s="4">
-        <v>1.49E-19</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>1.4900000000000001E-19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
-        <v>1305.0</v>
+        <v>1305</v>
       </c>
       <c r="B222" s="4">
-        <v>1.47E-18</v>
+        <v>1.4700000000000001E-18</v>
       </c>
       <c r="C222" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
-        <v>1310.0</v>
+        <v>1310</v>
       </c>
       <c r="B223" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C223" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="B224" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C224" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
-        <v>1320.0</v>
+        <v>1320</v>
       </c>
       <c r="B225" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C225" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
-        <v>1325.0</v>
+        <v>1325</v>
       </c>
       <c r="B226" s="4">
-        <v>1.47E-18</v>
+        <v>1.4700000000000001E-18</v>
       </c>
       <c r="C226" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
-        <v>1330.0</v>
+        <v>1330</v>
       </c>
       <c r="B227" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C227" s="4">
-        <v>1.47E-19</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>1.4699999999999999E-19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="B228" s="4">
         <v>1.44E-18</v>
       </c>
       <c r="C228" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
-        <v>1340.0</v>
+        <v>1340</v>
       </c>
       <c r="B229" s="4">
-        <v>1.46E-18</v>
+        <v>1.4599999999999999E-18</v>
       </c>
       <c r="C229" s="4">
-        <v>1.46E-19</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>1.4600000000000001E-19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
-        <v>1345.0</v>
+        <v>1345</v>
       </c>
       <c r="B230" s="4">
         <v>1.44E-18</v>
@@ -2856,75 +2911,75 @@
         <v>1.45E-19</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="B231" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C231" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
-        <v>1355.0</v>
+        <v>1355</v>
       </c>
       <c r="B232" s="4">
         <v>1.45E-18</v>
       </c>
       <c r="C232" s="4">
-        <v>1.46E-19</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>1.4600000000000001E-19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
-        <v>1360.0</v>
+        <v>1360</v>
       </c>
       <c r="B233" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C233" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
-        <v>1365.0</v>
+        <v>1365</v>
       </c>
       <c r="B234" s="4">
         <v>1.45E-18</v>
       </c>
       <c r="C234" s="4">
-        <v>1.46E-19</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>1.4600000000000001E-19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
-        <v>1370.0</v>
+        <v>1370</v>
       </c>
       <c r="B235" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C235" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
-        <v>1375.0</v>
+        <v>1375</v>
       </c>
       <c r="B236" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C236" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
-        <v>1380.0</v>
+        <v>1380</v>
       </c>
       <c r="B237" s="4">
         <v>1.42E-18</v>
@@ -2933,20 +2988,20 @@
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
-        <v>1385.0</v>
+        <v>1385</v>
       </c>
       <c r="B238" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C238" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="B239" s="4">
         <v>1.42E-18</v>
@@ -2955,31 +3010,31 @@
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
-        <v>1395.0</v>
+        <v>1395</v>
       </c>
       <c r="B240" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C240" s="4">
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="B241" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C241" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
-        <v>1405.0</v>
+        <v>1405</v>
       </c>
       <c r="B242" s="4">
         <v>1.41E-18</v>
@@ -2988,31 +3043,31 @@
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
-        <v>1410.0</v>
+        <v>1410</v>
       </c>
       <c r="B243" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C243" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
-        <v>1415.0</v>
+        <v>1415</v>
       </c>
       <c r="B244" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C244" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
-        <v>1420.0</v>
+        <v>1420</v>
       </c>
       <c r="B245" s="4">
         <v>1.42E-18</v>
@@ -3021,20 +3076,20 @@
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
-        <v>1425.0</v>
+        <v>1425</v>
       </c>
       <c r="B246" s="4">
-        <v>1.43E-18</v>
+        <v>1.4300000000000001E-18</v>
       </c>
       <c r="C246" s="4">
-        <v>1.44E-19</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>1.4399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
-        <v>1430.0</v>
+        <v>1430</v>
       </c>
       <c r="B247" s="4">
         <v>1.42E-18</v>
@@ -3043,9 +3098,9 @@
         <v>1.43E-19</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
-        <v>1435.0</v>
+        <v>1435</v>
       </c>
       <c r="B248" s="4">
         <v>1.42E-18</v>
@@ -3054,20 +3109,20 @@
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="B249" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C249" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
-        <v>1445.0</v>
+        <v>1445</v>
       </c>
       <c r="B250" s="4">
         <v>1.42E-18</v>
@@ -3076,108 +3131,108 @@
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
-        <v>1450.0</v>
+        <v>1450</v>
       </c>
       <c r="B251" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C251" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
-        <v>1455.0</v>
+        <v>1455</v>
       </c>
       <c r="B252" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C252" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
-        <v>1460.0</v>
+        <v>1460</v>
       </c>
       <c r="B253" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C253" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
-        <v>1465.0</v>
+        <v>1465</v>
       </c>
       <c r="B254" s="4">
         <v>1.38E-18</v>
       </c>
       <c r="C254" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
-        <v>1470.0</v>
+        <v>1470</v>
       </c>
       <c r="B255" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C255" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
-        <v>1475.0</v>
+        <v>1475</v>
       </c>
       <c r="B256" s="4">
-        <v>1.39E-18</v>
+        <v>1.3899999999999999E-18</v>
       </c>
       <c r="C256" s="4">
         <v>1.4E-19</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
-        <v>1480.0</v>
+        <v>1480</v>
       </c>
       <c r="B257" s="4">
         <v>1.37E-18</v>
       </c>
       <c r="C257" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
-        <v>1485.0</v>
+        <v>1485</v>
       </c>
       <c r="B258" s="4">
-        <v>1.4E-18</v>
+        <v>1.4000000000000001E-18</v>
       </c>
       <c r="C258" s="4">
         <v>1.42E-19</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
-        <v>1490.0</v>
+        <v>1490</v>
       </c>
       <c r="B259" s="4">
         <v>1.38E-18</v>
       </c>
       <c r="C259" s="4">
-        <v>1.39E-19</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>1.3899999999999999E-19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
-        <v>1495.0</v>
+        <v>1495</v>
       </c>
       <c r="B260" s="4">
         <v>1.33E-18</v>
@@ -3186,9 +3241,9 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="B261" s="4">
         <v>1.38E-18</v>
@@ -3197,86 +3252,86 @@
         <v>1.4E-19</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
-        <v>1505.0</v>
+        <v>1505</v>
       </c>
       <c r="B262" s="4">
         <v>1.34E-18</v>
       </c>
       <c r="C262" s="4">
-        <v>1.36E-19</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>1.3599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
-        <v>1510.0</v>
+        <v>1510</v>
       </c>
       <c r="B263" s="4">
-        <v>1.36E-18</v>
+        <v>1.3600000000000001E-18</v>
       </c>
       <c r="C263" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="B264" s="4">
         <v>1.37E-18</v>
       </c>
       <c r="C264" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
-        <v>1520.0</v>
+        <v>1520</v>
       </c>
       <c r="B265" s="4">
-        <v>1.36E-18</v>
+        <v>1.3600000000000001E-18</v>
       </c>
       <c r="C265" s="4">
         <v>1.37E-19</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
-        <v>1525.0</v>
+        <v>1525</v>
       </c>
       <c r="B266" s="4">
-        <v>1.35E-18</v>
+        <v>1.3499999999999999E-18</v>
       </c>
       <c r="C266" s="4">
         <v>1.37E-19</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="B267" s="4">
         <v>1.37E-18</v>
       </c>
       <c r="C267" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
-        <v>1535.0</v>
+        <v>1535</v>
       </c>
       <c r="B268" s="4">
         <v>1.37E-18</v>
       </c>
       <c r="C268" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
-        <v>1540.0</v>
+        <v>1540</v>
       </c>
       <c r="B269" s="4">
         <v>1.33E-18</v>
@@ -3285,9 +3340,9 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
-        <v>1545.0</v>
+        <v>1545</v>
       </c>
       <c r="B270" s="4">
         <v>1.38E-18</v>
@@ -3296,75 +3351,75 @@
         <v>1.4E-19</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="B271" s="4">
         <v>1.37E-18</v>
       </c>
       <c r="C271" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
-        <v>1555.0</v>
+        <v>1555</v>
       </c>
       <c r="B272" s="4">
-        <v>1.36E-18</v>
+        <v>1.3600000000000001E-18</v>
       </c>
       <c r="C272" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
-        <v>1560.0</v>
+        <v>1560</v>
       </c>
       <c r="B273" s="4">
         <v>1.37E-18</v>
       </c>
       <c r="C273" s="4">
-        <v>1.38E-19</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>1.3800000000000001E-19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
-        <v>1565.0</v>
+        <v>1565</v>
       </c>
       <c r="B274" s="4">
-        <v>1.35E-18</v>
+        <v>1.3499999999999999E-18</v>
       </c>
       <c r="C274" s="4">
-        <v>1.36E-19</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>1.3599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
-        <v>1570.0</v>
+        <v>1570</v>
       </c>
       <c r="B275" s="4">
-        <v>1.35E-18</v>
+        <v>1.3499999999999999E-18</v>
       </c>
       <c r="C275" s="4">
-        <v>1.36E-19</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>1.3599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
-        <v>1575.0</v>
+        <v>1575</v>
       </c>
       <c r="B276" s="4">
-        <v>1.36E-18</v>
+        <v>1.3600000000000001E-18</v>
       </c>
       <c r="C276" s="4">
         <v>1.37E-19</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="B277" s="4">
         <v>1.38E-18</v>
@@ -3373,31 +3428,31 @@
         <v>1.4E-19</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
-        <v>1585.0</v>
+        <v>1585</v>
       </c>
       <c r="B278" s="4">
-        <v>1.35E-18</v>
+        <v>1.3499999999999999E-18</v>
       </c>
       <c r="C278" s="4">
-        <v>1.36E-19</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>1.3599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="B279" s="4">
-        <v>1.35E-18</v>
+        <v>1.3499999999999999E-18</v>
       </c>
       <c r="C279" s="4">
-        <v>1.36E-19</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>1.3599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="B280" s="4">
         <v>1.31E-18</v>
@@ -3406,9 +3461,9 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="B281" s="4">
         <v>1.34E-18</v>
@@ -3417,9 +3472,9 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
-        <v>1605.0</v>
+        <v>1605</v>
       </c>
       <c r="B282" s="4">
         <v>1.33E-18</v>
@@ -3428,9 +3483,9 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
-        <v>1610.0</v>
+        <v>1610</v>
       </c>
       <c r="B283" s="4">
         <v>1.33E-18</v>
@@ -3439,20 +3494,20 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
-        <v>1615.0</v>
+        <v>1615</v>
       </c>
       <c r="B284" s="4">
         <v>1.33E-18</v>
       </c>
       <c r="C284" s="4">
-        <v>1.34E-19</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>1.3399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
-        <v>1620.0</v>
+        <v>1620</v>
       </c>
       <c r="B285" s="4">
         <v>1.31E-18</v>
@@ -3461,20 +3516,20 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
-        <v>1625.0</v>
+        <v>1625</v>
       </c>
       <c r="B286" s="4">
-        <v>1.32E-18</v>
+        <v>1.3199999999999999E-18</v>
       </c>
       <c r="C286" s="4">
-        <v>1.34E-19</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>1.3399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
-        <v>1630.0</v>
+        <v>1630</v>
       </c>
       <c r="B287" s="4">
         <v>1.31E-18</v>
@@ -3483,20 +3538,20 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
-        <v>1635.0</v>
+        <v>1635</v>
       </c>
       <c r="B288" s="4">
         <v>1.33E-18</v>
       </c>
       <c r="C288" s="4">
-        <v>1.34E-19</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>1.3399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
-        <v>1640.0</v>
+        <v>1640</v>
       </c>
       <c r="B289" s="4">
         <v>1.31E-18</v>
@@ -3505,53 +3560,53 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
-        <v>1645.0</v>
+        <v>1645</v>
       </c>
       <c r="B290" s="4">
         <v>1.33E-18</v>
       </c>
       <c r="C290" s="4">
-        <v>1.34E-19</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>1.3399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="B291" s="4">
-        <v>1.32E-18</v>
+        <v>1.3199999999999999E-18</v>
       </c>
       <c r="C291" s="4">
-        <v>1.34E-19</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>1.3399999999999999E-19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
-        <v>1655.0</v>
+        <v>1655</v>
       </c>
       <c r="B292" s="4">
         <v>1.31E-18</v>
       </c>
       <c r="C292" s="4">
-        <v>1.33E-19</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>1.3300000000000001E-19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
-        <v>1660.0</v>
+        <v>1660</v>
       </c>
       <c r="B293" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C293" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
-        <v>1665.0</v>
+        <v>1665</v>
       </c>
       <c r="B294" s="4">
         <v>1.34E-18</v>
@@ -3560,31 +3615,31 @@
         <v>1.35E-19</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="B295" s="4">
-        <v>1.32E-18</v>
+        <v>1.3199999999999999E-18</v>
       </c>
       <c r="C295" s="4">
-        <v>1.33E-19</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>1.3300000000000001E-19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="B296" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C296" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
-        <v>1680.0</v>
+        <v>1680</v>
       </c>
       <c r="B297" s="4">
         <v>1.3E-18</v>
@@ -3593,53 +3648,53 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="B298" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C298" s="4">
         <v>1.29E-19</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
-        <v>1690.0</v>
+        <v>1690</v>
       </c>
       <c r="B299" s="4">
         <v>1.31E-18</v>
       </c>
       <c r="C299" s="4">
-        <v>1.33E-19</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>1.3300000000000001E-19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
-        <v>1695.0</v>
+        <v>1695</v>
       </c>
       <c r="B300" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C300" s="4">
         <v>1.29E-19</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="B301" s="4">
-        <v>1.32E-18</v>
+        <v>1.3199999999999999E-18</v>
       </c>
       <c r="C301" s="4">
-        <v>1.33E-19</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>1.3300000000000001E-19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
-        <v>1705.0</v>
+        <v>1705</v>
       </c>
       <c r="B302" s="4">
         <v>1.31E-18</v>
@@ -3648,42 +3703,42 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="B303" s="4">
         <v>1.3E-18</v>
       </c>
       <c r="C303" s="4">
-        <v>1.31E-19</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>1.3099999999999999E-19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
-        <v>1715.0</v>
+        <v>1715</v>
       </c>
       <c r="B304" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C304" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="B305" s="4">
         <v>1.27E-18</v>
       </c>
       <c r="C305" s="4">
-        <v>1.28E-19</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>1.2799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
-        <v>1725.0</v>
+        <v>1725</v>
       </c>
       <c r="B306" s="4">
         <v>1.31E-18</v>
@@ -3692,119 +3747,119 @@
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
-        <v>1730.0</v>
+        <v>1730</v>
       </c>
       <c r="B307" s="4">
         <v>1.3E-18</v>
       </c>
       <c r="C307" s="4">
-        <v>1.31E-19</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>1.3099999999999999E-19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
-        <v>1735.0</v>
+        <v>1735</v>
       </c>
       <c r="B308" s="4">
-        <v>1.32E-18</v>
+        <v>1.3199999999999999E-18</v>
       </c>
       <c r="C308" s="4">
         <v>1.32E-19</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="B309" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C309" s="4">
-        <v>1.31E-19</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>1.3099999999999999E-19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
-        <v>1745.0</v>
+        <v>1745</v>
       </c>
       <c r="B310" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C310" s="4">
         <v>1.29E-19</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
-        <v>1750.0</v>
+        <v>1750</v>
       </c>
       <c r="B311" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C311" s="4">
         <v>1.29E-19</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
-        <v>1755.0</v>
+        <v>1755</v>
       </c>
       <c r="B312" s="4">
         <v>1.27E-18</v>
       </c>
       <c r="C312" s="4">
-        <v>1.28E-19</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>1.2799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
-        <v>1760.0</v>
+        <v>1760</v>
       </c>
       <c r="B313" s="4">
         <v>1.3E-18</v>
       </c>
       <c r="C313" s="4">
-        <v>1.31E-19</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>1.3099999999999999E-19</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
-        <v>1765.0</v>
+        <v>1765</v>
       </c>
       <c r="B314" s="4">
         <v>1.27E-18</v>
       </c>
       <c r="C314" s="4">
-        <v>1.28E-19</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>1.2799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
-        <v>1770.0</v>
+        <v>1770</v>
       </c>
       <c r="B315" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C315" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="B316" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C316" s="4">
-        <v>1.31E-19</v>
-      </c>
-    </row>
-    <row r="317">
+        <v>1.3099999999999999E-19</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
-        <v>1780.0</v>
+        <v>1780</v>
       </c>
       <c r="B317" s="4">
         <v>1.27E-18</v>
@@ -3813,53 +3868,53 @@
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
-        <v>1785.0</v>
+        <v>1785</v>
       </c>
       <c r="B318" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C318" s="4">
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
-        <v>1790.0</v>
+        <v>1790</v>
       </c>
       <c r="B319" s="4">
         <v>1.26E-18</v>
       </c>
       <c r="C319" s="4">
-        <v>1.28E-19</v>
-      </c>
-    </row>
-    <row r="320">
+        <v>1.2799999999999999E-19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
-        <v>1795.0</v>
+        <v>1795</v>
       </c>
       <c r="B320" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C320" s="4">
         <v>1.29E-19</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="B321" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C321" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="322">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
-        <v>1805.0</v>
+        <v>1805</v>
       </c>
       <c r="B322" s="4">
         <v>1.26E-18</v>
@@ -3868,9 +3923,9 @@
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
-        <v>1810.0</v>
+        <v>1810</v>
       </c>
       <c r="B323" s="4">
         <v>1.27E-18</v>
@@ -3879,9 +3934,9 @@
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
-        <v>1815.0</v>
+        <v>1815</v>
       </c>
       <c r="B324" s="4">
         <v>1.26E-18</v>
@@ -3890,86 +3945,86 @@
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
-        <v>1820.0</v>
+        <v>1820</v>
       </c>
       <c r="B325" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C325" s="4">
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
-        <v>1825.0</v>
+        <v>1825</v>
       </c>
       <c r="B326" s="4">
-        <v>1.21E-18</v>
+        <v>1.2099999999999999E-18</v>
       </c>
       <c r="C326" s="4">
-        <v>1.23E-19</v>
-      </c>
-    </row>
-    <row r="327">
+        <v>1.2299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="B327" s="4">
-        <v>1.28E-18</v>
+        <v>1.2799999999999999E-18</v>
       </c>
       <c r="C327" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="328">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
-        <v>1835.0</v>
+        <v>1835</v>
       </c>
       <c r="B328" s="4">
-        <v>1.29E-18</v>
+        <v>1.2900000000000001E-18</v>
       </c>
       <c r="C328" s="4">
-        <v>1.3E-19</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>1.3000000000000001E-19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="B329" s="4">
         <v>1.24E-18</v>
       </c>
       <c r="C329" s="4">
-        <v>1.25E-19</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>1.2500000000000001E-19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
-        <v>1845.0</v>
+        <v>1845</v>
       </c>
       <c r="B330" s="4">
         <v>1.24E-18</v>
       </c>
       <c r="C330" s="4">
-        <v>1.25E-19</v>
-      </c>
-    </row>
-    <row r="331">
+        <v>1.2500000000000001E-19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="B331" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C331" s="4">
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
-        <v>1855.0</v>
+        <v>1855</v>
       </c>
       <c r="B332" s="4">
         <v>1.23E-18</v>
@@ -3978,97 +4033,97 @@
         <v>1.24E-19</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="B333" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C333" s="4">
-        <v>1.26E-19</v>
-      </c>
-    </row>
-    <row r="334">
+        <v>1.2599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
-        <v>1865.0</v>
+        <v>1865</v>
       </c>
       <c r="B334" s="4">
-        <v>1.22E-18</v>
+        <v>1.2200000000000001E-18</v>
       </c>
       <c r="C334" s="4">
-        <v>1.23E-19</v>
-      </c>
-    </row>
-    <row r="335">
+        <v>1.2299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
-        <v>1870.0</v>
+        <v>1870</v>
       </c>
       <c r="B335" s="4">
-        <v>1.25E-18</v>
+        <v>1.2500000000000001E-18</v>
       </c>
       <c r="C335" s="4">
         <v>1.27E-19</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="B336" s="4">
-        <v>1.22E-18</v>
+        <v>1.2200000000000001E-18</v>
       </c>
       <c r="C336" s="4">
-        <v>1.23E-19</v>
-      </c>
-    </row>
-    <row r="337">
+        <v>1.2299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="B337" s="4">
-        <v>1.22E-18</v>
+        <v>1.2200000000000001E-18</v>
       </c>
       <c r="C337" s="4">
-        <v>1.23E-19</v>
-      </c>
-    </row>
-    <row r="338">
+        <v>1.2299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
-        <v>1885.0</v>
+        <v>1885</v>
       </c>
       <c r="B338" s="4">
-        <v>1.22E-18</v>
+        <v>1.2200000000000001E-18</v>
       </c>
       <c r="C338" s="4">
-        <v>1.26E-19</v>
-      </c>
-    </row>
-    <row r="339">
+        <v>1.2599999999999999E-19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
-        <v>1890.0</v>
+        <v>1890</v>
       </c>
       <c r="B339" s="4">
-        <v>1.22E-18</v>
+        <v>1.2200000000000001E-18</v>
       </c>
       <c r="C339" s="4">
-        <v>1.23E-19</v>
-      </c>
-    </row>
-    <row r="340">
+        <v>1.2299999999999999E-19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
-        <v>1895.0</v>
+        <v>1895</v>
       </c>
       <c r="B340" s="4">
-        <v>1.21E-18</v>
+        <v>1.2099999999999999E-18</v>
       </c>
       <c r="C340" s="4">
-        <v>1.22E-19</v>
-      </c>
-    </row>
-    <row r="341">
+        <v>1.2200000000000001E-19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="B341" s="4">
         <v>1.23E-18</v>
@@ -4077,739 +4132,739 @@
         <v>1.24E-19</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/csdata/Fe/SI/Fe9+.xlsx
+++ b/csdata/Fe/SI/Fe9+.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EDE402-2263-F94C-9936-EF4A6563B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE0DA7-888B-EF47-A391-7051B4CF5034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,6 +128,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,8 +349,8 @@
   </sheetPr>
   <dimension ref="A1:F524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -431,6 +432,7 @@
       <c r="C5" s="4">
         <v>2.63E-20</v>
       </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -443,6 +445,7 @@
       <c r="C6" s="4">
         <v>2.52E-20</v>
       </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -455,6 +458,7 @@
       <c r="C7" s="4">
         <v>2.4799999999999999E-20</v>
       </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -467,6 +471,7 @@
       <c r="C8" s="4">
         <v>2.7600000000000001E-20</v>
       </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -479,6 +484,7 @@
       <c r="C9" s="4">
         <v>1.6700000000000001E-20</v>
       </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -490,6 +496,7 @@
       <c r="C10" s="4">
         <v>1.3E-20</v>
       </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -501,6 +508,7 @@
       <c r="C11" s="4">
         <v>1.3300000000000001E-20</v>
       </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -512,6 +520,7 @@
       <c r="C12" s="4">
         <v>1.2E-20</v>
       </c>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -523,6 +532,7 @@
       <c r="C13" s="4">
         <v>1.21E-20</v>
       </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -534,6 +544,7 @@
       <c r="C14" s="4">
         <v>1.3300000000000001E-20</v>
       </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -545,6 +556,7 @@
       <c r="C15" s="4">
         <v>2.22E-20</v>
       </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -556,8 +568,9 @@
       <c r="C16" s="4">
         <v>3.28E-20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>280</v>
       </c>
@@ -567,8 +580,9 @@
       <c r="C17" s="4">
         <v>4.1200000000000002E-20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>285</v>
       </c>
@@ -578,8 +592,9 @@
       <c r="C18" s="4">
         <v>4.93E-20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>290</v>
       </c>
@@ -589,8 +604,9 @@
       <c r="C19" s="4">
         <v>5.42E-20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>295</v>
       </c>
@@ -600,8 +616,9 @@
       <c r="C20" s="4">
         <v>6.31E-20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>300</v>
       </c>
@@ -611,8 +628,9 @@
       <c r="C21" s="4">
         <v>6.6100000000000004E-20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>305</v>
       </c>
@@ -622,8 +640,9 @@
       <c r="C22" s="4">
         <v>7.0800000000000003E-20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>310</v>
       </c>
@@ -633,8 +652,9 @@
       <c r="C23" s="4">
         <v>7.7799999999999995E-20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>315</v>
       </c>
@@ -644,8 +664,9 @@
       <c r="C24" s="4">
         <v>8.05E-20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>320</v>
       </c>
@@ -655,8 +676,9 @@
       <c r="C25" s="4">
         <v>8.63E-20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>325</v>
       </c>
@@ -666,8 +688,9 @@
       <c r="C26" s="4">
         <v>8.9600000000000001E-20</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>330</v>
       </c>
@@ -677,8 +700,9 @@
       <c r="C27" s="4">
         <v>9.1199999999999994E-20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>335</v>
       </c>
@@ -688,8 +712,9 @@
       <c r="C28" s="4">
         <v>9.5100000000000003E-20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>340</v>
       </c>
@@ -699,8 +724,9 @@
       <c r="C29" s="4">
         <v>9.6900000000000003E-20</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>345</v>
       </c>
@@ -710,8 +736,9 @@
       <c r="C30" s="4">
         <v>9.8499999999999996E-20</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>350</v>
       </c>
@@ -721,8 +748,9 @@
       <c r="C31" s="4">
         <v>1.02E-19</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>355</v>
       </c>
@@ -732,8 +760,9 @@
       <c r="C32" s="4">
         <v>1.0499999999999999E-19</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>360</v>
       </c>
@@ -743,8 +772,9 @@
       <c r="C33" s="4">
         <v>1.07E-19</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>365</v>
       </c>
@@ -754,8 +784,9 @@
       <c r="C34" s="4">
         <v>1.0999999999999999E-19</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>370</v>
       </c>
@@ -765,8 +796,9 @@
       <c r="C35" s="4">
         <v>1.13E-19</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>375</v>
       </c>
@@ -776,8 +808,9 @@
       <c r="C36" s="4">
         <v>1.14E-19</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>380</v>
       </c>
@@ -787,8 +820,9 @@
       <c r="C37" s="4">
         <v>1.1799999999999999E-19</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>385</v>
       </c>
@@ -798,8 +832,9 @@
       <c r="C38" s="4">
         <v>1.21E-19</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>390</v>
       </c>
@@ -809,8 +844,9 @@
       <c r="C39" s="4">
         <v>1.21E-19</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>395</v>
       </c>
@@ -820,8 +856,9 @@
       <c r="C40" s="4">
         <v>1.24E-19</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>400</v>
       </c>
@@ -831,8 +868,9 @@
       <c r="C41" s="4">
         <v>1.2599999999999999E-19</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>405</v>
       </c>
@@ -842,8 +880,9 @@
       <c r="C42" s="4">
         <v>1.2500000000000001E-19</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>410</v>
       </c>
@@ -853,8 +892,9 @@
       <c r="C43" s="4">
         <v>1.2799999999999999E-19</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>415</v>
       </c>
@@ -864,8 +904,9 @@
       <c r="C44" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>420</v>
       </c>
@@ -875,8 +916,9 @@
       <c r="C45" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>425</v>
       </c>
@@ -886,8 +928,9 @@
       <c r="C46" s="4">
         <v>1.3300000000000001E-19</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>430</v>
       </c>
@@ -897,8 +940,9 @@
       <c r="C47" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>435</v>
       </c>
@@ -908,8 +952,9 @@
       <c r="C48" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>440</v>
       </c>
@@ -919,8 +964,9 @@
       <c r="C49" s="4">
         <v>1.3599999999999999E-19</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>445</v>
       </c>
@@ -930,8 +976,9 @@
       <c r="C50" s="4">
         <v>1.37E-19</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>450</v>
       </c>
@@ -941,8 +988,9 @@
       <c r="C51" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>455</v>
       </c>
@@ -952,8 +1000,9 @@
       <c r="C52" s="4">
         <v>1.4E-19</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>460</v>
       </c>
@@ -963,8 +1012,9 @@
       <c r="C53" s="4">
         <v>1.4100000000000001E-19</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>465</v>
       </c>
@@ -974,8 +1024,9 @@
       <c r="C54" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>470</v>
       </c>
@@ -985,8 +1036,9 @@
       <c r="C55" s="4">
         <v>1.4100000000000001E-19</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>475</v>
       </c>
@@ -996,8 +1048,9 @@
       <c r="C56" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>480</v>
       </c>
@@ -1007,8 +1060,9 @@
       <c r="C57" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>485</v>
       </c>
@@ -1018,8 +1072,9 @@
       <c r="C58" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>490</v>
       </c>
@@ -1029,8 +1084,9 @@
       <c r="C59" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>495</v>
       </c>
@@ -1040,8 +1096,9 @@
       <c r="C60" s="4">
         <v>1.4600000000000001E-19</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>500</v>
       </c>
@@ -1051,8 +1108,9 @@
       <c r="C61" s="4">
         <v>1.48E-19</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>505</v>
       </c>
@@ -1062,8 +1120,9 @@
       <c r="C62" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>510</v>
       </c>
@@ -1073,8 +1132,9 @@
       <c r="C63" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>515</v>
       </c>
@@ -1084,8 +1144,9 @@
       <c r="C64" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>520</v>
       </c>
@@ -1095,8 +1156,9 @@
       <c r="C65" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>525</v>
       </c>
@@ -1106,8 +1168,9 @@
       <c r="C66" s="4">
         <v>1.48E-19</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>530</v>
       </c>
@@ -1117,8 +1180,9 @@
       <c r="C67" s="4">
         <v>1.48E-19</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>535</v>
       </c>
@@ -1128,8 +1192,9 @@
       <c r="C68" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>540</v>
       </c>
@@ -1139,8 +1204,9 @@
       <c r="C69" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>545</v>
       </c>
@@ -1150,8 +1216,9 @@
       <c r="C70" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>550</v>
       </c>
@@ -1161,8 +1228,9 @@
       <c r="C71" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>555</v>
       </c>
@@ -1172,8 +1240,9 @@
       <c r="C72" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>560</v>
       </c>
@@ -1183,8 +1252,9 @@
       <c r="C73" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>565</v>
       </c>
@@ -1194,8 +1264,9 @@
       <c r="C74" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>570</v>
       </c>
@@ -1205,8 +1276,9 @@
       <c r="C75" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>575</v>
       </c>
@@ -1216,8 +1288,9 @@
       <c r="C76" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>580</v>
       </c>
@@ -1227,8 +1300,9 @@
       <c r="C77" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>585</v>
       </c>
@@ -1238,8 +1312,9 @@
       <c r="C78" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>590</v>
       </c>
@@ -1249,8 +1324,9 @@
       <c r="C79" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>595</v>
       </c>
@@ -1260,8 +1336,9 @@
       <c r="C80" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>600</v>
       </c>
@@ -1271,8 +1348,9 @@
       <c r="C81" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>605</v>
       </c>
@@ -1282,8 +1360,9 @@
       <c r="C82" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>610</v>
       </c>
@@ -1293,8 +1372,9 @@
       <c r="C83" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>615</v>
       </c>
@@ -1304,8 +1384,9 @@
       <c r="C84" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>620</v>
       </c>
@@ -1315,8 +1396,9 @@
       <c r="C85" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>625</v>
       </c>
@@ -1326,8 +1408,9 @@
       <c r="C86" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>630</v>
       </c>
@@ -1337,8 +1420,9 @@
       <c r="C87" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>635</v>
       </c>
@@ -1348,8 +1432,9 @@
       <c r="C88" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>640</v>
       </c>
@@ -1359,8 +1444,9 @@
       <c r="C89" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>645</v>
       </c>
@@ -1370,8 +1456,9 @@
       <c r="C90" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>650</v>
       </c>
@@ -1381,8 +1468,9 @@
       <c r="C91" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>655</v>
       </c>
@@ -1392,8 +1480,9 @@
       <c r="C92" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>660</v>
       </c>
@@ -1403,8 +1492,9 @@
       <c r="C93" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>665</v>
       </c>
@@ -1414,8 +1504,9 @@
       <c r="C94" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>670</v>
       </c>
@@ -1425,8 +1516,9 @@
       <c r="C95" s="4">
         <v>1.5499999999999999E-19</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>675</v>
       </c>
@@ -1436,8 +1528,9 @@
       <c r="C96" s="4">
         <v>1.5400000000000001E-19</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>680</v>
       </c>
@@ -1447,8 +1540,9 @@
       <c r="C97" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>685</v>
       </c>
@@ -1458,8 +1552,9 @@
       <c r="C98" s="4">
         <v>1.56E-19</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>690</v>
       </c>
@@ -1469,8 +1564,9 @@
       <c r="C99" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>695</v>
       </c>
@@ -1480,8 +1576,9 @@
       <c r="C100" s="4">
         <v>1.61E-19</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>700</v>
       </c>
@@ -1491,8 +1588,9 @@
       <c r="C101" s="4">
         <v>1.61E-19</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>705</v>
       </c>
@@ -1502,8 +1600,9 @@
       <c r="C102" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>710</v>
       </c>
@@ -1513,8 +1612,9 @@
       <c r="C103" s="4">
         <v>1.6299999999999999E-19</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>715</v>
       </c>
@@ -1524,8 +1624,9 @@
       <c r="C104" s="4">
         <v>1.6499999999999999E-19</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>720</v>
       </c>
@@ -1535,8 +1636,9 @@
       <c r="C105" s="4">
         <v>1.6700000000000001E-19</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>725</v>
       </c>
@@ -1546,8 +1648,9 @@
       <c r="C106" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>730</v>
       </c>
@@ -1557,8 +1660,9 @@
       <c r="C107" s="4">
         <v>1.6499999999999999E-19</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>735</v>
       </c>
@@ -1568,8 +1672,9 @@
       <c r="C108" s="4">
         <v>1.6299999999999999E-19</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>740</v>
       </c>
@@ -1579,8 +1684,9 @@
       <c r="C109" s="4">
         <v>1.6499999999999999E-19</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>745</v>
       </c>
@@ -1590,8 +1696,9 @@
       <c r="C110" s="4">
         <v>1.64E-19</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>750</v>
       </c>
@@ -1601,8 +1708,9 @@
       <c r="C111" s="4">
         <v>1.64E-19</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>755</v>
       </c>
@@ -1612,8 +1720,9 @@
       <c r="C112" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>760</v>
       </c>
@@ -1623,8 +1732,9 @@
       <c r="C113" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>765</v>
       </c>
@@ -1634,8 +1744,9 @@
       <c r="C114" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>770</v>
       </c>
@@ -1645,8 +1756,9 @@
       <c r="C115" s="4">
         <v>1.6700000000000001E-19</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>775</v>
       </c>
@@ -1656,8 +1768,9 @@
       <c r="C116" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>780</v>
       </c>
@@ -1667,8 +1780,9 @@
       <c r="C117" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>785</v>
       </c>
@@ -1678,8 +1792,9 @@
       <c r="C118" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>790</v>
       </c>
@@ -1689,8 +1804,9 @@
       <c r="C119" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>795</v>
       </c>
@@ -1700,8 +1816,9 @@
       <c r="C120" s="4">
         <v>1.71E-19</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>800</v>
       </c>
@@ -1711,8 +1828,9 @@
       <c r="C121" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>805</v>
       </c>
@@ -1722,8 +1840,9 @@
       <c r="C122" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>810</v>
       </c>
@@ -1733,8 +1852,9 @@
       <c r="C123" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>815</v>
       </c>
@@ -1744,8 +1864,9 @@
       <c r="C124" s="4">
         <v>1.7000000000000001E-19</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>820</v>
       </c>
@@ -1755,8 +1876,9 @@
       <c r="C125" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>825</v>
       </c>
@@ -1766,8 +1888,9 @@
       <c r="C126" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>830</v>
       </c>
@@ -1777,8 +1900,9 @@
       <c r="C127" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D127" s="8"/>
+    </row>
+    <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>835</v>
       </c>
@@ -1788,8 +1912,9 @@
       <c r="C128" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>840</v>
       </c>
@@ -1799,8 +1924,9 @@
       <c r="C129" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D129" s="8"/>
+    </row>
+    <row r="130" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>845</v>
       </c>
@@ -1810,8 +1936,9 @@
       <c r="C130" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>850</v>
       </c>
@@ -1821,8 +1948,9 @@
       <c r="C131" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>855</v>
       </c>
@@ -1832,8 +1960,9 @@
       <c r="C132" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>860</v>
       </c>
@@ -1843,8 +1972,9 @@
       <c r="C133" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>865</v>
       </c>
@@ -1854,8 +1984,9 @@
       <c r="C134" s="4">
         <v>1.7000000000000001E-19</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>870</v>
       </c>
@@ -1865,8 +1996,9 @@
       <c r="C135" s="4">
         <v>1.7000000000000001E-19</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>875</v>
       </c>
@@ -1876,8 +2008,9 @@
       <c r="C136" s="4">
         <v>1.7000000000000001E-19</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>880</v>
       </c>
@@ -1887,8 +2020,9 @@
       <c r="C137" s="4">
         <v>1.7000000000000001E-19</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
         <v>885</v>
       </c>
@@ -1898,8 +2032,9 @@
       <c r="C138" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
         <v>890</v>
       </c>
@@ -1909,8 +2044,9 @@
       <c r="C139" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>895</v>
       </c>
@@ -1920,8 +2056,9 @@
       <c r="C140" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>900</v>
       </c>
@@ -1931,8 +2068,9 @@
       <c r="C141" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>905</v>
       </c>
@@ -1942,8 +2080,9 @@
       <c r="C142" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>910</v>
       </c>
@@ -1953,8 +2092,9 @@
       <c r="C143" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>915</v>
       </c>
@@ -1964,8 +2104,9 @@
       <c r="C144" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>920</v>
       </c>
@@ -1975,8 +2116,9 @@
       <c r="C145" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>925</v>
       </c>
@@ -1986,8 +2128,9 @@
       <c r="C146" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
         <v>930</v>
       </c>
@@ -1997,8 +2140,9 @@
       <c r="C147" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>935</v>
       </c>
@@ -2008,8 +2152,9 @@
       <c r="C148" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>940</v>
       </c>
@@ -2019,8 +2164,9 @@
       <c r="C149" s="4">
         <v>1.69E-19</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>945</v>
       </c>
@@ -2030,8 +2176,9 @@
       <c r="C150" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>950</v>
       </c>
@@ -2041,8 +2188,9 @@
       <c r="C151" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>955</v>
       </c>
@@ -2052,8 +2200,9 @@
       <c r="C152" s="4">
         <v>1.6799999999999999E-19</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>960</v>
       </c>
@@ -2063,8 +2212,9 @@
       <c r="C153" s="4">
         <v>1.6700000000000001E-19</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
         <v>965</v>
       </c>
@@ -2074,8 +2224,9 @@
       <c r="C154" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D154" s="8"/>
+    </row>
+    <row r="155" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
         <v>970</v>
       </c>
@@ -2085,8 +2236,9 @@
       <c r="C155" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
         <v>975</v>
       </c>
@@ -2096,8 +2248,9 @@
       <c r="C156" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
         <v>980</v>
       </c>
@@ -2107,8 +2260,9 @@
       <c r="C157" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
         <v>985</v>
       </c>
@@ -2118,8 +2272,9 @@
       <c r="C158" s="4">
         <v>1.6700000000000001E-19</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
         <v>990</v>
       </c>
@@ -2129,8 +2284,9 @@
       <c r="C159" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>995</v>
       </c>
@@ -2140,8 +2296,9 @@
       <c r="C160" s="4">
         <v>1.6499999999999999E-19</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D160" s="8"/>
+    </row>
+    <row r="161" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>1000</v>
       </c>
@@ -2151,8 +2308,9 @@
       <c r="C161" s="4">
         <v>1.6499999999999999E-19</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>1005</v>
       </c>
@@ -2162,8 +2320,9 @@
       <c r="C162" s="4">
         <v>1.66E-19</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D162" s="8"/>
+    </row>
+    <row r="163" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>1010</v>
       </c>
@@ -2173,8 +2332,9 @@
       <c r="C163" s="4">
         <v>1.6299999999999999E-19</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D163" s="8"/>
+    </row>
+    <row r="164" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>1015</v>
       </c>
@@ -2184,8 +2344,9 @@
       <c r="C164" s="4">
         <v>1.6299999999999999E-19</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D164" s="8"/>
+    </row>
+    <row r="165" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>1020</v>
       </c>
@@ -2195,8 +2356,9 @@
       <c r="C165" s="4">
         <v>1.6299999999999999E-19</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>1025</v>
       </c>
@@ -2206,8 +2368,9 @@
       <c r="C166" s="4">
         <v>1.6299999999999999E-19</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>1030</v>
       </c>
@@ -2217,8 +2380,9 @@
       <c r="C167" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D167" s="8"/>
+    </row>
+    <row r="168" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>1035</v>
       </c>
@@ -2228,8 +2392,9 @@
       <c r="C168" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D168" s="8"/>
+    </row>
+    <row r="169" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>1040</v>
       </c>
@@ -2239,8 +2404,9 @@
       <c r="C169" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D169" s="8"/>
+    </row>
+    <row r="170" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>1045</v>
       </c>
@@ -2250,8 +2416,9 @@
       <c r="C170" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D170" s="8"/>
+    </row>
+    <row r="171" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>1050</v>
       </c>
@@ -2261,8 +2428,9 @@
       <c r="C171" s="4">
         <v>1.61E-19</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>1055</v>
       </c>
@@ -2272,8 +2440,9 @@
       <c r="C172" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D172" s="8"/>
+    </row>
+    <row r="173" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>1060</v>
       </c>
@@ -2283,8 +2452,9 @@
       <c r="C173" s="4">
         <v>1.6200000000000001E-19</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D173" s="8"/>
+    </row>
+    <row r="174" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>1065</v>
       </c>
@@ -2294,8 +2464,9 @@
       <c r="C174" s="4">
         <v>1.5999999999999999E-19</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D174" s="8"/>
+    </row>
+    <row r="175" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>1070</v>
       </c>
@@ -2305,8 +2476,9 @@
       <c r="C175" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D175" s="8"/>
+    </row>
+    <row r="176" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>1075</v>
       </c>
@@ -2316,8 +2488,9 @@
       <c r="C176" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D176" s="8"/>
+    </row>
+    <row r="177" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>1080</v>
       </c>
@@ -2327,8 +2500,9 @@
       <c r="C177" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D177" s="8"/>
+    </row>
+    <row r="178" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>1085</v>
       </c>
@@ -2338,8 +2512,9 @@
       <c r="C178" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
         <v>1090</v>
       </c>
@@ -2349,8 +2524,9 @@
       <c r="C179" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D179" s="8"/>
+    </row>
+    <row r="180" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
         <v>1095</v>
       </c>
@@ -2360,8 +2536,9 @@
       <c r="C180" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D180" s="8"/>
+    </row>
+    <row r="181" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>1100</v>
       </c>
@@ -2371,8 +2548,9 @@
       <c r="C181" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D181" s="8"/>
+    </row>
+    <row r="182" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>1105</v>
       </c>
@@ -2382,8 +2560,9 @@
       <c r="C182" s="4">
         <v>1.58E-19</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D182" s="8"/>
+    </row>
+    <row r="183" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
         <v>1110</v>
       </c>
@@ -2393,8 +2572,9 @@
       <c r="C183" s="4">
         <v>1.56E-19</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D183" s="8"/>
+    </row>
+    <row r="184" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
         <v>1115</v>
       </c>
@@ -2404,8 +2584,9 @@
       <c r="C184" s="4">
         <v>1.5700000000000001E-19</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D184" s="8"/>
+    </row>
+    <row r="185" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
         <v>1120</v>
       </c>
@@ -2415,8 +2596,9 @@
       <c r="C185" s="4">
         <v>1.5700000000000001E-19</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D185" s="8"/>
+    </row>
+    <row r="186" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>1125</v>
       </c>
@@ -2426,8 +2608,9 @@
       <c r="C186" s="4">
         <v>1.56E-19</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D186" s="8"/>
+    </row>
+    <row r="187" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>1130</v>
       </c>
@@ -2437,8 +2620,9 @@
       <c r="C187" s="4">
         <v>1.5499999999999999E-19</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>1135</v>
       </c>
@@ -2448,8 +2632,9 @@
       <c r="C188" s="4">
         <v>1.5700000000000001E-19</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D188" s="8"/>
+    </row>
+    <row r="189" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>1140</v>
       </c>
@@ -2459,8 +2644,9 @@
       <c r="C189" s="4">
         <v>1.56E-19</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D189" s="8"/>
+    </row>
+    <row r="190" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>1145</v>
       </c>
@@ -2470,8 +2656,9 @@
       <c r="C190" s="4">
         <v>1.56E-19</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D190" s="8"/>
+    </row>
+    <row r="191" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
         <v>1150</v>
       </c>
@@ -2481,8 +2668,9 @@
       <c r="C191" s="4">
         <v>1.5499999999999999E-19</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D191" s="8"/>
+    </row>
+    <row r="192" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
         <v>1155</v>
       </c>
@@ -2492,8 +2680,9 @@
       <c r="C192" s="4">
         <v>1.5400000000000001E-19</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D192" s="8"/>
+    </row>
+    <row r="193" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>1160</v>
       </c>
@@ -2503,8 +2692,9 @@
       <c r="C193" s="4">
         <v>1.5400000000000001E-19</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D193" s="8"/>
+    </row>
+    <row r="194" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>1165</v>
       </c>
@@ -2514,8 +2704,9 @@
       <c r="C194" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D194" s="8"/>
+    </row>
+    <row r="195" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>1170</v>
       </c>
@@ -2525,8 +2716,9 @@
       <c r="C195" s="4">
         <v>1.5499999999999999E-19</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D195" s="8"/>
+    </row>
+    <row r="196" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>1175</v>
       </c>
@@ -2536,8 +2728,9 @@
       <c r="C196" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D196" s="8"/>
+    </row>
+    <row r="197" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>1180</v>
       </c>
@@ -2547,8 +2740,9 @@
       <c r="C197" s="4">
         <v>1.5499999999999999E-19</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D197" s="8"/>
+    </row>
+    <row r="198" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>1185</v>
       </c>
@@ -2558,8 +2752,9 @@
       <c r="C198" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D198" s="8"/>
+    </row>
+    <row r="199" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>1190</v>
       </c>
@@ -2569,8 +2764,9 @@
       <c r="C199" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D199" s="8"/>
+    </row>
+    <row r="200" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>1195</v>
       </c>
@@ -2580,8 +2776,9 @@
       <c r="C200" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D200" s="8"/>
+    </row>
+    <row r="201" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>1200</v>
       </c>
@@ -2591,8 +2788,9 @@
       <c r="C201" s="4">
         <v>1.53E-19</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D201" s="8"/>
+    </row>
+    <row r="202" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>1205</v>
       </c>
@@ -2602,8 +2800,9 @@
       <c r="C202" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D202" s="8"/>
+    </row>
+    <row r="203" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>1210</v>
       </c>
@@ -2613,8 +2812,9 @@
       <c r="C203" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D203" s="8"/>
+    </row>
+    <row r="204" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>1215</v>
       </c>
@@ -2624,8 +2824,9 @@
       <c r="C204" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D204" s="8"/>
+    </row>
+    <row r="205" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
         <v>1220</v>
       </c>
@@ -2635,8 +2836,9 @@
       <c r="C205" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D205" s="8"/>
+    </row>
+    <row r="206" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
         <v>1225</v>
       </c>
@@ -2646,8 +2848,9 @@
       <c r="C206" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
         <v>1230</v>
       </c>
@@ -2657,8 +2860,9 @@
       <c r="C207" s="4">
         <v>1.5199999999999999E-19</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
         <v>1235</v>
       </c>
@@ -2668,8 +2872,9 @@
       <c r="C208" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D208" s="8"/>
+    </row>
+    <row r="209" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>1240</v>
       </c>
@@ -2679,8 +2884,9 @@
       <c r="C209" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D209" s="8"/>
+    </row>
+    <row r="210" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>1245</v>
       </c>
@@ -2690,8 +2896,9 @@
       <c r="C210" s="4">
         <v>1.5100000000000001E-19</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D210" s="8"/>
+    </row>
+    <row r="211" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>1250</v>
       </c>
@@ -2701,8 +2908,9 @@
       <c r="C211" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D211" s="8"/>
+    </row>
+    <row r="212" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>1255</v>
       </c>
@@ -2712,8 +2920,9 @@
       <c r="C212" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D212" s="8"/>
+    </row>
+    <row r="213" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>1260</v>
       </c>
@@ -2723,8 +2932,9 @@
       <c r="C213" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D213" s="8"/>
+    </row>
+    <row r="214" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>1265</v>
       </c>
@@ -2734,8 +2944,9 @@
       <c r="C214" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D214" s="8"/>
+    </row>
+    <row r="215" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
         <v>1270</v>
       </c>
@@ -2745,8 +2956,9 @@
       <c r="C215" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D215" s="8"/>
+    </row>
+    <row r="216" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>1275</v>
       </c>
@@ -2756,8 +2968,9 @@
       <c r="C216" s="4">
         <v>1.5E-19</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D216" s="8"/>
+    </row>
+    <row r="217" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>1280</v>
       </c>
@@ -2767,8 +2980,9 @@
       <c r="C217" s="4">
         <v>1.48E-19</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D217" s="8"/>
+    </row>
+    <row r="218" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>1285</v>
       </c>
@@ -2778,8 +2992,9 @@
       <c r="C218" s="4">
         <v>1.48E-19</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D218" s="8"/>
+    </row>
+    <row r="219" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>1290</v>
       </c>
@@ -2789,8 +3004,9 @@
       <c r="C219" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D219" s="8"/>
+    </row>
+    <row r="220" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>1295</v>
       </c>
@@ -2800,8 +3016,9 @@
       <c r="C220" s="4">
         <v>1.48E-19</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D220" s="8"/>
+    </row>
+    <row r="221" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>1300</v>
       </c>
@@ -2811,8 +3028,9 @@
       <c r="C221" s="4">
         <v>1.4900000000000001E-19</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D221" s="8"/>
+    </row>
+    <row r="222" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>1305</v>
       </c>
@@ -2822,8 +3040,9 @@
       <c r="C222" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D222" s="8"/>
+    </row>
+    <row r="223" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
         <v>1310</v>
       </c>
@@ -2833,8 +3052,9 @@
       <c r="C223" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D223" s="8"/>
+    </row>
+    <row r="224" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
         <v>1315</v>
       </c>
@@ -2844,8 +3064,9 @@
       <c r="C224" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D224" s="8"/>
+    </row>
+    <row r="225" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
         <v>1320</v>
       </c>
@@ -2855,8 +3076,9 @@
       <c r="C225" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D225" s="8"/>
+    </row>
+    <row r="226" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
         <v>1325</v>
       </c>
@@ -2866,8 +3088,9 @@
       <c r="C226" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D226" s="8"/>
+    </row>
+    <row r="227" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
         <v>1330</v>
       </c>
@@ -2877,8 +3100,9 @@
       <c r="C227" s="4">
         <v>1.4699999999999999E-19</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D227" s="8"/>
+    </row>
+    <row r="228" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
         <v>1335</v>
       </c>
@@ -2888,8 +3112,9 @@
       <c r="C228" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D228" s="8"/>
+    </row>
+    <row r="229" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
         <v>1340</v>
       </c>
@@ -2899,8 +3124,9 @@
       <c r="C229" s="4">
         <v>1.4600000000000001E-19</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D229" s="8"/>
+    </row>
+    <row r="230" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
         <v>1345</v>
       </c>
@@ -2910,8 +3136,9 @@
       <c r="C230" s="4">
         <v>1.45E-19</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D230" s="8"/>
+    </row>
+    <row r="231" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
         <v>1350</v>
       </c>
@@ -2921,8 +3148,9 @@
       <c r="C231" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D231" s="8"/>
+    </row>
+    <row r="232" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
         <v>1355</v>
       </c>
@@ -2932,8 +3160,9 @@
       <c r="C232" s="4">
         <v>1.4600000000000001E-19</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D232" s="8"/>
+    </row>
+    <row r="233" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
         <v>1360</v>
       </c>
@@ -2943,8 +3172,9 @@
       <c r="C233" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D233" s="8"/>
+    </row>
+    <row r="234" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
         <v>1365</v>
       </c>
@@ -2954,8 +3184,9 @@
       <c r="C234" s="4">
         <v>1.4600000000000001E-19</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D234" s="8"/>
+    </row>
+    <row r="235" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
         <v>1370</v>
       </c>
@@ -2965,8 +3196,9 @@
       <c r="C235" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D235" s="8"/>
+    </row>
+    <row r="236" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
         <v>1375</v>
       </c>
@@ -2976,8 +3208,9 @@
       <c r="C236" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D236" s="8"/>
+    </row>
+    <row r="237" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
         <v>1380</v>
       </c>
@@ -2987,8 +3220,9 @@
       <c r="C237" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D237" s="8"/>
+    </row>
+    <row r="238" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
         <v>1385</v>
       </c>
@@ -2998,8 +3232,9 @@
       <c r="C238" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D238" s="8"/>
+    </row>
+    <row r="239" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
         <v>1390</v>
       </c>
@@ -3009,8 +3244,9 @@
       <c r="C239" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D239" s="8"/>
+    </row>
+    <row r="240" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
         <v>1395</v>
       </c>
@@ -3020,8 +3256,9 @@
       <c r="C240" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D240" s="8"/>
+    </row>
+    <row r="241" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
         <v>1400</v>
       </c>
@@ -3031,8 +3268,9 @@
       <c r="C241" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D241" s="8"/>
+    </row>
+    <row r="242" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
         <v>1405</v>
       </c>
@@ -3042,8 +3280,9 @@
       <c r="C242" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D242" s="8"/>
+    </row>
+    <row r="243" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
         <v>1410</v>
       </c>
@@ -3053,8 +3292,9 @@
       <c r="C243" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D243" s="8"/>
+    </row>
+    <row r="244" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
         <v>1415</v>
       </c>
@@ -3064,8 +3304,9 @@
       <c r="C244" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D244" s="8"/>
+    </row>
+    <row r="245" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
         <v>1420</v>
       </c>
@@ -3075,8 +3316,9 @@
       <c r="C245" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D245" s="8"/>
+    </row>
+    <row r="246" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>1425</v>
       </c>
@@ -3086,8 +3328,9 @@
       <c r="C246" s="4">
         <v>1.4399999999999999E-19</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D246" s="8"/>
+    </row>
+    <row r="247" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
         <v>1430</v>
       </c>
@@ -3097,8 +3340,9 @@
       <c r="C247" s="4">
         <v>1.43E-19</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D247" s="8"/>
+    </row>
+    <row r="248" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
         <v>1435</v>
       </c>
@@ -3108,8 +3352,9 @@
       <c r="C248" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D248" s="8"/>
+    </row>
+    <row r="249" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
         <v>1440</v>
       </c>
@@ -3119,8 +3364,9 @@
       <c r="C249" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D249" s="8"/>
+    </row>
+    <row r="250" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>1445</v>
       </c>
@@ -3130,8 +3376,9 @@
       <c r="C250" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D250" s="8"/>
+    </row>
+    <row r="251" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
         <v>1450</v>
       </c>
@@ -3141,8 +3388,9 @@
       <c r="C251" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D251" s="8"/>
+    </row>
+    <row r="252" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
         <v>1455</v>
       </c>
@@ -3152,8 +3400,9 @@
       <c r="C252" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D252" s="8"/>
+    </row>
+    <row r="253" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
         <v>1460</v>
       </c>
@@ -3163,8 +3412,9 @@
       <c r="C253" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D253" s="8"/>
+    </row>
+    <row r="254" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <v>1465</v>
       </c>
@@ -3174,8 +3424,9 @@
       <c r="C254" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D254" s="8"/>
+    </row>
+    <row r="255" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
         <v>1470</v>
       </c>
@@ -3185,8 +3436,9 @@
       <c r="C255" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D255" s="8"/>
+    </row>
+    <row r="256" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
         <v>1475</v>
       </c>
@@ -3196,8 +3448,9 @@
       <c r="C256" s="4">
         <v>1.4E-19</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D256" s="8"/>
+    </row>
+    <row r="257" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <v>1480</v>
       </c>
@@ -3207,8 +3460,9 @@
       <c r="C257" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D257" s="8"/>
+    </row>
+    <row r="258" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
         <v>1485</v>
       </c>
@@ -3218,8 +3472,9 @@
       <c r="C258" s="4">
         <v>1.42E-19</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D258" s="8"/>
+    </row>
+    <row r="259" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
         <v>1490</v>
       </c>
@@ -3229,8 +3484,9 @@
       <c r="C259" s="4">
         <v>1.3899999999999999E-19</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D259" s="8"/>
+    </row>
+    <row r="260" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
         <v>1495</v>
       </c>
@@ -3240,8 +3496,9 @@
       <c r="C260" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D260" s="8"/>
+    </row>
+    <row r="261" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
         <v>1500</v>
       </c>
@@ -3251,8 +3508,9 @@
       <c r="C261" s="4">
         <v>1.4E-19</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D261" s="8"/>
+    </row>
+    <row r="262" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
         <v>1505</v>
       </c>
@@ -3262,8 +3520,9 @@
       <c r="C262" s="4">
         <v>1.3599999999999999E-19</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D262" s="8"/>
+    </row>
+    <row r="263" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
         <v>1510</v>
       </c>
@@ -3273,8 +3532,9 @@
       <c r="C263" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D263" s="8"/>
+    </row>
+    <row r="264" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
         <v>1515</v>
       </c>
@@ -3284,8 +3544,9 @@
       <c r="C264" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D264" s="8"/>
+    </row>
+    <row r="265" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
         <v>1520</v>
       </c>
@@ -3295,8 +3556,9 @@
       <c r="C265" s="4">
         <v>1.37E-19</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D265" s="8"/>
+    </row>
+    <row r="266" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
         <v>1525</v>
       </c>
@@ -3306,8 +3568,9 @@
       <c r="C266" s="4">
         <v>1.37E-19</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D266" s="8"/>
+    </row>
+    <row r="267" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
         <v>1530</v>
       </c>
@@ -3317,8 +3580,9 @@
       <c r="C267" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D267" s="8"/>
+    </row>
+    <row r="268" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>1535</v>
       </c>
@@ -3328,8 +3592,9 @@
       <c r="C268" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D268" s="8"/>
+    </row>
+    <row r="269" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
         <v>1540</v>
       </c>
@@ -3339,8 +3604,9 @@
       <c r="C269" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D269" s="8"/>
+    </row>
+    <row r="270" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
         <v>1545</v>
       </c>
@@ -3350,8 +3616,9 @@
       <c r="C270" s="4">
         <v>1.4E-19</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D270" s="8"/>
+    </row>
+    <row r="271" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
         <v>1550</v>
       </c>
@@ -3361,8 +3628,9 @@
       <c r="C271" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D271" s="8"/>
+    </row>
+    <row r="272" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>1555</v>
       </c>
@@ -3372,8 +3640,9 @@
       <c r="C272" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D272" s="8"/>
+    </row>
+    <row r="273" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
         <v>1560</v>
       </c>
@@ -3383,8 +3652,9 @@
       <c r="C273" s="4">
         <v>1.3800000000000001E-19</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D273" s="8"/>
+    </row>
+    <row r="274" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
         <v>1565</v>
       </c>
@@ -3394,8 +3664,9 @@
       <c r="C274" s="4">
         <v>1.3599999999999999E-19</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D274" s="8"/>
+    </row>
+    <row r="275" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
         <v>1570</v>
       </c>
@@ -3405,8 +3676,9 @@
       <c r="C275" s="4">
         <v>1.3599999999999999E-19</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D275" s="8"/>
+    </row>
+    <row r="276" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>1575</v>
       </c>
@@ -3416,8 +3688,9 @@
       <c r="C276" s="4">
         <v>1.37E-19</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D276" s="8"/>
+    </row>
+    <row r="277" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
         <v>1580</v>
       </c>
@@ -3427,8 +3700,9 @@
       <c r="C277" s="4">
         <v>1.4E-19</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D277" s="8"/>
+    </row>
+    <row r="278" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
         <v>1585</v>
       </c>
@@ -3438,8 +3712,9 @@
       <c r="C278" s="4">
         <v>1.3599999999999999E-19</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D278" s="8"/>
+    </row>
+    <row r="279" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
         <v>1590</v>
       </c>
@@ -3449,8 +3724,9 @@
       <c r="C279" s="4">
         <v>1.3599999999999999E-19</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D279" s="8"/>
+    </row>
+    <row r="280" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>1595</v>
       </c>
@@ -3460,8 +3736,9 @@
       <c r="C280" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D280" s="8"/>
+    </row>
+    <row r="281" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
         <v>1600</v>
       </c>
@@ -3471,8 +3748,9 @@
       <c r="C281" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D281" s="8"/>
+    </row>
+    <row r="282" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
         <v>1605</v>
       </c>
@@ -3482,8 +3760,9 @@
       <c r="C282" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D282" s="8"/>
+    </row>
+    <row r="283" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
         <v>1610</v>
       </c>
@@ -3493,8 +3772,9 @@
       <c r="C283" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D283" s="8"/>
+    </row>
+    <row r="284" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
         <v>1615</v>
       </c>
@@ -3504,8 +3784,9 @@
       <c r="C284" s="4">
         <v>1.3399999999999999E-19</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D284" s="8"/>
+    </row>
+    <row r="285" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
         <v>1620</v>
       </c>
@@ -3515,8 +3796,9 @@
       <c r="C285" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D285" s="8"/>
+    </row>
+    <row r="286" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
         <v>1625</v>
       </c>
@@ -3526,8 +3808,9 @@
       <c r="C286" s="4">
         <v>1.3399999999999999E-19</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D286" s="8"/>
+    </row>
+    <row r="287" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
         <v>1630</v>
       </c>
@@ -3537,8 +3820,9 @@
       <c r="C287" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D287" s="8"/>
+    </row>
+    <row r="288" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
         <v>1635</v>
       </c>
@@ -3548,8 +3832,9 @@
       <c r="C288" s="4">
         <v>1.3399999999999999E-19</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D288" s="8"/>
+    </row>
+    <row r="289" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
         <v>1640</v>
       </c>
@@ -3559,8 +3844,9 @@
       <c r="C289" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D289" s="8"/>
+    </row>
+    <row r="290" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
         <v>1645</v>
       </c>
@@ -3570,8 +3856,9 @@
       <c r="C290" s="4">
         <v>1.3399999999999999E-19</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D290" s="8"/>
+    </row>
+    <row r="291" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
         <v>1650</v>
       </c>
@@ -3581,8 +3868,9 @@
       <c r="C291" s="4">
         <v>1.3399999999999999E-19</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D291" s="8"/>
+    </row>
+    <row r="292" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
         <v>1655</v>
       </c>
@@ -3592,8 +3880,9 @@
       <c r="C292" s="4">
         <v>1.3300000000000001E-19</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D292" s="8"/>
+    </row>
+    <row r="293" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
         <v>1660</v>
       </c>
@@ -3603,8 +3892,9 @@
       <c r="C293" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D293" s="8"/>
+    </row>
+    <row r="294" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
         <v>1665</v>
       </c>
@@ -3614,8 +3904,9 @@
       <c r="C294" s="4">
         <v>1.35E-19</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D294" s="8"/>
+    </row>
+    <row r="295" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
         <v>1670</v>
       </c>
@@ -3625,8 +3916,9 @@
       <c r="C295" s="4">
         <v>1.3300000000000001E-19</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D295" s="8"/>
+    </row>
+    <row r="296" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
         <v>1675</v>
       </c>
@@ -3636,8 +3928,9 @@
       <c r="C296" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D296" s="8"/>
+    </row>
+    <row r="297" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
         <v>1680</v>
       </c>
@@ -3647,8 +3940,9 @@
       <c r="C297" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D297" s="8"/>
+    </row>
+    <row r="298" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
         <v>1685</v>
       </c>
@@ -3658,8 +3952,9 @@
       <c r="C298" s="4">
         <v>1.29E-19</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D298" s="8"/>
+    </row>
+    <row r="299" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
         <v>1690</v>
       </c>
@@ -3669,8 +3964,9 @@
       <c r="C299" s="4">
         <v>1.3300000000000001E-19</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D299" s="8"/>
+    </row>
+    <row r="300" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
         <v>1695</v>
       </c>
@@ -3680,8 +3976,9 @@
       <c r="C300" s="4">
         <v>1.29E-19</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D300" s="8"/>
+    </row>
+    <row r="301" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
         <v>1700</v>
       </c>
@@ -3691,8 +3988,9 @@
       <c r="C301" s="4">
         <v>1.3300000000000001E-19</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D301" s="8"/>
+    </row>
+    <row r="302" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
         <v>1705</v>
       </c>
@@ -3702,8 +4000,9 @@
       <c r="C302" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D302" s="8"/>
+    </row>
+    <row r="303" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
         <v>1710</v>
       </c>
@@ -3713,8 +4012,9 @@
       <c r="C303" s="4">
         <v>1.3099999999999999E-19</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D303" s="8"/>
+    </row>
+    <row r="304" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
         <v>1715</v>
       </c>
@@ -3724,8 +4024,9 @@
       <c r="C304" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D304" s="8"/>
+    </row>
+    <row r="305" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
         <v>1720</v>
       </c>
@@ -3735,8 +4036,9 @@
       <c r="C305" s="4">
         <v>1.2799999999999999E-19</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D305" s="8"/>
+    </row>
+    <row r="306" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
         <v>1725</v>
       </c>
@@ -3746,8 +4048,9 @@
       <c r="C306" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D306" s="8"/>
+    </row>
+    <row r="307" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
         <v>1730</v>
       </c>
@@ -3757,8 +4060,9 @@
       <c r="C307" s="4">
         <v>1.3099999999999999E-19</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D307" s="8"/>
+    </row>
+    <row r="308" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
         <v>1735</v>
       </c>
@@ -3768,8 +4072,9 @@
       <c r="C308" s="4">
         <v>1.32E-19</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D308" s="8"/>
+    </row>
+    <row r="309" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
         <v>1740</v>
       </c>
@@ -3779,8 +4084,9 @@
       <c r="C309" s="4">
         <v>1.3099999999999999E-19</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D309" s="8"/>
+    </row>
+    <row r="310" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
         <v>1745</v>
       </c>
@@ -3790,8 +4096,9 @@
       <c r="C310" s="4">
         <v>1.29E-19</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D310" s="8"/>
+    </row>
+    <row r="311" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
         <v>1750</v>
       </c>
@@ -3801,8 +4108,9 @@
       <c r="C311" s="4">
         <v>1.29E-19</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D311" s="8"/>
+    </row>
+    <row r="312" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
         <v>1755</v>
       </c>
@@ -3812,8 +4120,9 @@
       <c r="C312" s="4">
         <v>1.2799999999999999E-19</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D312" s="8"/>
+    </row>
+    <row r="313" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
         <v>1760</v>
       </c>
@@ -3823,8 +4132,9 @@
       <c r="C313" s="4">
         <v>1.3099999999999999E-19</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D313" s="8"/>
+    </row>
+    <row r="314" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
         <v>1765</v>
       </c>
@@ -3834,8 +4144,9 @@
       <c r="C314" s="4">
         <v>1.2799999999999999E-19</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D314" s="8"/>
+    </row>
+    <row r="315" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
         <v>1770</v>
       </c>
@@ -3845,8 +4156,9 @@
       <c r="C315" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D315" s="8"/>
+    </row>
+    <row r="316" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
         <v>1775</v>
       </c>
@@ -3856,8 +4168,9 @@
       <c r="C316" s="4">
         <v>1.3099999999999999E-19</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D316" s="8"/>
+    </row>
+    <row r="317" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
         <v>1780</v>
       </c>
@@ -3867,8 +4180,9 @@
       <c r="C317" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D317" s="8"/>
+    </row>
+    <row r="318" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
         <v>1785</v>
       </c>
@@ -3878,8 +4192,9 @@
       <c r="C318" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D318" s="8"/>
+    </row>
+    <row r="319" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
         <v>1790</v>
       </c>
@@ -3889,8 +4204,9 @@
       <c r="C319" s="4">
         <v>1.2799999999999999E-19</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D319" s="8"/>
+    </row>
+    <row r="320" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
         <v>1795</v>
       </c>
@@ -3900,8 +4216,9 @@
       <c r="C320" s="4">
         <v>1.29E-19</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D320" s="8"/>
+    </row>
+    <row r="321" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
         <v>1800</v>
       </c>
@@ -3911,8 +4228,9 @@
       <c r="C321" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D321" s="8"/>
+    </row>
+    <row r="322" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
         <v>1805</v>
       </c>
@@ -3922,8 +4240,9 @@
       <c r="C322" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D322" s="8"/>
+    </row>
+    <row r="323" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
         <v>1810</v>
       </c>
@@ -3933,8 +4252,9 @@
       <c r="C323" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D323" s="8"/>
+    </row>
+    <row r="324" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
         <v>1815</v>
       </c>
@@ -3944,8 +4264,9 @@
       <c r="C324" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D324" s="8"/>
+    </row>
+    <row r="325" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
         <v>1820</v>
       </c>
@@ -3955,8 +4276,9 @@
       <c r="C325" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D325" s="8"/>
+    </row>
+    <row r="326" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
         <v>1825</v>
       </c>
@@ -3966,8 +4288,9 @@
       <c r="C326" s="4">
         <v>1.2299999999999999E-19</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D326" s="8"/>
+    </row>
+    <row r="327" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
         <v>1830</v>
       </c>
@@ -3977,8 +4300,9 @@
       <c r="C327" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D327" s="8"/>
+    </row>
+    <row r="328" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
         <v>1835</v>
       </c>
@@ -3988,8 +4312,9 @@
       <c r="C328" s="4">
         <v>1.3000000000000001E-19</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D328" s="8"/>
+    </row>
+    <row r="329" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
         <v>1840</v>
       </c>
@@ -3999,8 +4324,9 @@
       <c r="C329" s="4">
         <v>1.2500000000000001E-19</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D329" s="8"/>
+    </row>
+    <row r="330" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
         <v>1845</v>
       </c>
@@ -4010,8 +4336,9 @@
       <c r="C330" s="4">
         <v>1.2500000000000001E-19</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D330" s="8"/>
+    </row>
+    <row r="331" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
         <v>1850</v>
       </c>
@@ -4021,8 +4348,9 @@
       <c r="C331" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D331" s="8"/>
+    </row>
+    <row r="332" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
         <v>1855</v>
       </c>
@@ -4032,8 +4360,9 @@
       <c r="C332" s="4">
         <v>1.24E-19</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D332" s="8"/>
+    </row>
+    <row r="333" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
         <v>1860</v>
       </c>
@@ -4043,8 +4372,9 @@
       <c r="C333" s="4">
         <v>1.2599999999999999E-19</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D333" s="8"/>
+    </row>
+    <row r="334" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
         <v>1865</v>
       </c>
@@ -4054,8 +4384,9 @@
       <c r="C334" s="4">
         <v>1.2299999999999999E-19</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D334" s="8"/>
+    </row>
+    <row r="335" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
         <v>1870</v>
       </c>
@@ -4065,8 +4396,9 @@
       <c r="C335" s="4">
         <v>1.27E-19</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D335" s="8"/>
+    </row>
+    <row r="336" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
         <v>1875</v>
       </c>
@@ -4076,8 +4408,9 @@
       <c r="C336" s="4">
         <v>1.2299999999999999E-19</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D336" s="8"/>
+    </row>
+    <row r="337" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
         <v>1880</v>
       </c>
@@ -4087,8 +4420,9 @@
       <c r="C337" s="4">
         <v>1.2299999999999999E-19</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D337" s="8"/>
+    </row>
+    <row r="338" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
         <v>1885</v>
       </c>
@@ -4098,8 +4432,9 @@
       <c r="C338" s="4">
         <v>1.2599999999999999E-19</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D338" s="8"/>
+    </row>
+    <row r="339" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
         <v>1890</v>
       </c>
@@ -4109,8 +4444,9 @@
       <c r="C339" s="4">
         <v>1.2299999999999999E-19</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="D339" s="8"/>
+    </row>
+    <row r="340" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
         <v>1895</v>
       </c>
@@ -4121,7 +4457,7 @@
         <v>1.2200000000000001E-19</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
         <v>1900</v>
       </c>
@@ -4132,47 +4468,47 @@
         <v>1.24E-19</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
     </row>
